--- a/fuction_ensemble_1/redes-ensemble-s/mse_sup/25_model_2_2_7.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/mse_sup/25_model_2_2_7.xlsx
@@ -508,7 +508,7 @@
         <v>2.618991867025821</v>
       </c>
       <c r="D5" t="n">
-        <v>2.61881685256958</v>
+        <v>2.618817090988159</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +592,7 @@
         <v>2.502536279404641</v>
       </c>
       <c r="D11" t="n">
-        <v>2.502984523773193</v>
+        <v>2.502984285354614</v>
       </c>
     </row>
     <row r="12">
@@ -662,7 +662,7 @@
         <v>2.816739155750824</v>
       </c>
       <c r="D16" t="n">
-        <v>2.854030609130859</v>
+        <v>2.854030847549438</v>
       </c>
     </row>
     <row r="17">
@@ -760,7 +760,7 @@
         <v>0.6951161619240627</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6963245868682861</v>
+        <v>0.6963250637054443</v>
       </c>
     </row>
     <row r="24">
@@ -802,7 +802,7 @@
         <v>1.759168997909792</v>
       </c>
       <c r="D26" t="n">
-        <v>1.759057998657227</v>
+        <v>1.759058117866516</v>
       </c>
     </row>
   </sheetData>
